--- a/TeamProject115/timing115.xlsx
+++ b/TeamProject115/timing115.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khanb\source\repos\TeamProject115\TeamProject115\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CC9F5A9-1684-41DC-9D88-C8227AE8320A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9167716B-71EF-4C75-AD10-23610592F061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="2265" windowWidth="21600" windowHeight="11835" xr2:uid="{C4DC0EAD-8D25-4CEF-9B77-817A79C8CBD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C4DC0EAD-8D25-4CEF-9B77-817A79C8CBD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="21">
   <si>
     <t>Data Size</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>Average (sec)</t>
+  </si>
+  <si>
+    <t>Coutning</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>1000000</t>
   </si>
 </sst>
 </file>
@@ -136,11 +151,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,6 +172,1502 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sort</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Method </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Running Time Comparison (Second)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$42:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$42:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.7864000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3485199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14043666699999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.511603333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1BCD-48A4-ACE2-689B9774EB9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$42:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$42:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.2269999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1406433000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.111851333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4259266669999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1BCD-48A4-ACE2-689B9774EB9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coutning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$42:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$42:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.2519999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7514E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4009367E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13739833300000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1BCD-48A4-ACE2-689B9774EB9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Radix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$42:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$42:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.2370000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3661669999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4384467000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63377966699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1BCD-48A4-ACE2-689B9774EB9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$42:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$42:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.3056000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6365132999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32548533299999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9900933329999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1BCD-48A4-ACE2-689B9774EB9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="298746432"/>
+        <c:axId val="236977712"/>
+        <c:axId val="322308240"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="298746432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Data</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="236977712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="236977712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (Seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298746432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="322308240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sorting Methods</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.8159334827672089"/>
+              <c:y val="0.77319839975950155"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="236977712"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E813139-5AB6-412B-AB83-5272779500F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,15 +1967,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1750635C-F59B-4745-B839-268F536C334E}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -472,6 +1984,7 @@
     <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -515,14 +2028,14 @@
         <v>1.80932E-2</v>
       </c>
       <c r="D2" s="1">
-        <f>B2*10</f>
+        <f t="shared" ref="D2:D9" si="0">B2*10</f>
         <v>10000</v>
       </c>
       <c r="E2" s="1">
         <v>1.47611</v>
       </c>
       <c r="F2" s="1">
-        <f>D2*10</f>
+        <f t="shared" ref="F2:F9" si="1">D2*10</f>
         <v>100000</v>
       </c>
       <c r="G2" s="1">
@@ -547,21 +2060,21 @@
         <v>5.3931199999999999E-2</v>
       </c>
       <c r="D3" s="1">
-        <f>B3*10</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="E3" s="1">
         <v>4.4007699999999996</v>
       </c>
       <c r="F3" s="1">
-        <f>D3*10</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="G3" s="1">
         <v>318.86099999999999</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H9" si="0">F3*10</f>
+        <f t="shared" ref="H3:H9" si="2">F3*10</f>
         <v>1000000</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -579,21 +2092,21 @@
         <v>5.1794600000000003E-2</v>
       </c>
       <c r="D4" s="1">
-        <f>B4*10</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="E4" s="1">
         <v>4.6089599999999997</v>
       </c>
       <c r="F4" s="1">
-        <f>D4*10</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="G4" s="1">
         <v>463.73200000000003</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -612,7 +2125,7 @@
         <v>1.7864000000000003E-3</v>
       </c>
       <c r="D5" s="1">
-        <f>B5*10</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="E5" s="1">
@@ -620,7 +2133,7 @@
         <v>1.3485200000000001E-2</v>
       </c>
       <c r="F5" s="1">
-        <f>D5*10</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="G5" s="1">
@@ -628,7 +2141,7 @@
         <v>0.14043766666666668</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="I5" s="1">
@@ -644,31 +2157,31 @@
         <v>1000</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:C9" si="1">F14</f>
+        <f t="shared" ref="C6:C9" si="3">F14</f>
         <v>8.2269999999999999E-4</v>
       </c>
       <c r="D6" s="1">
-        <f>B6*10</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E9" si="2">F21</f>
+        <f t="shared" ref="E6:E9" si="4">F21</f>
         <v>1.1406433333333334E-2</v>
       </c>
       <c r="F6" s="1">
-        <f>D6*10</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G6:G9" si="3">F28</f>
+        <f t="shared" ref="G6:G9" si="5">F28</f>
         <v>0.11185133333333334</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:I9" si="4">F35</f>
+        <f t="shared" ref="I6:I9" si="6">F35</f>
         <v>1.4259266666666666</v>
       </c>
     </row>
@@ -680,31 +2193,31 @@
         <v>1000</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3055999999999997E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6365133333333336E-2</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>2.3055999999999997E-3</v>
-      </c>
-      <c r="D7" s="1">
-        <f>B7*10</f>
-        <v>10000</v>
-      </c>
-      <c r="E7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.32548533333333335</v>
+      </c>
+      <c r="H7" s="1">
         <f t="shared" si="2"/>
-        <v>2.6365133333333336E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <f>D7*10</f>
-        <v>100000</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.32548533333333335</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.9900933333333337</v>
       </c>
     </row>
@@ -716,31 +2229,31 @@
         <v>1000</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2519999999999998E-4</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7514000000000002E-3</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>4.2519999999999998E-4</v>
-      </c>
-      <c r="D8" s="1">
-        <f>B8*10</f>
-        <v>10000</v>
-      </c>
-      <c r="E8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4009366666666667E-2</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="2"/>
-        <v>1.7514000000000002E-3</v>
-      </c>
-      <c r="F8" s="1">
-        <f>D8*10</f>
-        <v>100000</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="3"/>
-        <v>1.4009366666666667E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.13739833333333332</v>
       </c>
     </row>
@@ -752,31 +2265,31 @@
         <v>1000</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="3"/>
+        <v>8.2370000000000002E-4</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="4"/>
+        <v>6.3661666666666667E-3</v>
+      </c>
+      <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>8.2370000000000002E-4</v>
-      </c>
-      <c r="D9" s="1">
-        <f>B9*10</f>
-        <v>10000</v>
-      </c>
-      <c r="E9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="5"/>
+        <v>6.4384466666666654E-2</v>
+      </c>
+      <c r="H9" s="1">
         <f t="shared" si="2"/>
-        <v>6.3661666666666667E-3</v>
-      </c>
-      <c r="F9" s="1">
-        <f>D9*10</f>
-        <v>100000</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="3"/>
-        <v>6.4384466666666654E-2</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.63377966666666663</v>
       </c>
     </row>
@@ -800,8 +2313,6 @@
         <v>15</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -830,7 +2341,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" ref="B14:B17" si="5">B3</f>
+        <f t="shared" ref="B14:B17" si="7">B3</f>
         <v>1000</v>
       </c>
       <c r="C14" s="1">
@@ -843,7 +2354,7 @@
         <v>6.7460000000000003E-4</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" ref="F14:F17" si="6">AVERAGE(C14:E14)</f>
+        <f t="shared" ref="F14:F17" si="8">AVERAGE(C14:E14)</f>
         <v>8.2269999999999999E-4</v>
       </c>
     </row>
@@ -852,7 +2363,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="C15" s="1">
@@ -865,7 +2376,7 @@
         <v>2.4023E-3</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.3055999999999997E-3</v>
       </c>
     </row>
@@ -874,7 +2385,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="C16" s="1">
@@ -887,7 +2398,7 @@
         <v>4.0559999999999999E-4</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.2519999999999998E-4</v>
       </c>
     </row>
@@ -896,7 +2407,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="C17" s="1">
@@ -909,7 +2420,7 @@
         <v>8.5820000000000004E-4</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.2370000000000002E-4</v>
       </c>
     </row>
@@ -960,7 +2471,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" ref="B21:B24" si="7">D3</f>
+        <f t="shared" ref="B21:B24" si="9">D3</f>
         <v>10000</v>
       </c>
       <c r="C21" s="1">
@@ -973,7 +2484,7 @@
         <v>9.9288999999999992E-3</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" ref="F21:F24" si="8">AVERAGE(C21:E21)</f>
+        <f t="shared" ref="F21:F24" si="10">AVERAGE(C21:E21)</f>
         <v>1.1406433333333334E-2</v>
       </c>
     </row>
@@ -982,7 +2493,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10000</v>
       </c>
       <c r="C22" s="1">
@@ -995,7 +2506,7 @@
         <v>2.57731E-2</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.6365133333333336E-2</v>
       </c>
     </row>
@@ -1004,7 +2515,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10000</v>
       </c>
       <c r="C23" s="1">
@@ -1017,7 +2528,7 @@
         <v>1.7028E-3</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.7514000000000002E-3</v>
       </c>
     </row>
@@ -1026,7 +2537,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10000</v>
       </c>
       <c r="C24" s="1">
@@ -1039,7 +2550,7 @@
         <v>6.3384000000000001E-3</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.3661666666666667E-3</v>
       </c>
     </row>
@@ -1101,7 +2612,7 @@
         <v>0.113482</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" ref="F28:F31" si="9">AVERAGE(C28:E28)</f>
+        <f t="shared" ref="F28:F31" si="11">AVERAGE(C28:E28)</f>
         <v>0.11185133333333334</v>
       </c>
     </row>
@@ -1122,7 +2633,7 @@
         <v>0.32304100000000002</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.32548533333333335</v>
       </c>
     </row>
@@ -1143,7 +2654,7 @@
         <v>1.3743099999999999E-2</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.4009366666666667E-2</v>
       </c>
     </row>
@@ -1164,7 +2675,7 @@
         <v>6.4047499999999993E-2</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.4384466666666654E-2</v>
       </c>
     </row>
@@ -1215,7 +2726,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" ref="B35:B38" si="10">1000000</f>
+        <f t="shared" ref="B35:B38" si="12">1000000</f>
         <v>1000000</v>
       </c>
       <c r="C35" s="1">
@@ -1228,7 +2739,7 @@
         <v>1.44554</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" ref="F35:F38" si="11">AVERAGE(C35:E35)</f>
+        <f t="shared" ref="F35:F38" si="13">AVERAGE(C35:E35)</f>
         <v>1.4259266666666666</v>
       </c>
     </row>
@@ -1237,7 +2748,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1000000</v>
       </c>
       <c r="C36" s="1">
@@ -1250,7 +2761,7 @@
         <v>3.9851399999999999</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.9900933333333337</v>
       </c>
     </row>
@@ -1259,7 +2770,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1000000</v>
       </c>
       <c r="C37" s="1">
@@ -1272,7 +2783,7 @@
         <v>0.13650399999999999</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.13739833333333332</v>
       </c>
     </row>
@@ -1281,7 +2792,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1000000</v>
       </c>
       <c r="C38" s="1">
@@ -1294,8 +2805,227 @@
         <v>0.63202899999999995</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.63377966666666663</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>1.7864000000000001E-3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>8.2269999999999999E-4</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4.2519999999999998E-4</v>
+      </c>
+      <c r="E42">
+        <v>8.2370000000000002E-4</v>
+      </c>
+      <c r="F42">
+        <v>2.3056000000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.3485199999999999E-2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.1406433000000001E-2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.7514E-3</v>
+      </c>
+      <c r="E43" s="1">
+        <v>6.3661669999999998E-3</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2.6365132999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.14043666699999999</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.111851333</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.4009367E-2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>6.4384467000000001E-2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.32548533299999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1.511603333</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.4259266669999999</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.13739833300000001</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.63377966699999999</v>
+      </c>
+      <c r="F45" s="1">
+        <v>3.9900933329999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <f>B42</f>
+        <v>1.7864000000000001E-3</v>
+      </c>
+      <c r="C49">
+        <f>B43</f>
+        <v>1.3485199999999999E-2</v>
+      </c>
+      <c r="D49">
+        <f>B44</f>
+        <v>0.14043666699999999</v>
+      </c>
+      <c r="E49">
+        <f>B45</f>
+        <v>1.511603333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <f>C42</f>
+        <v>8.2269999999999999E-4</v>
+      </c>
+      <c r="C50">
+        <f>C43</f>
+        <v>1.1406433000000001E-2</v>
+      </c>
+      <c r="D50">
+        <f>C44</f>
+        <v>0.111851333</v>
+      </c>
+      <c r="E50">
+        <f>C45</f>
+        <v>1.4259266669999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <f>F42</f>
+        <v>2.3056000000000001E-3</v>
+      </c>
+      <c r="C51">
+        <f>F43</f>
+        <v>2.6365132999999999E-2</v>
+      </c>
+      <c r="D51">
+        <f>F44</f>
+        <v>0.32548533299999999</v>
+      </c>
+      <c r="E51">
+        <f>F45</f>
+        <v>3.9900933329999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <f>D42</f>
+        <v>4.2519999999999998E-4</v>
+      </c>
+      <c r="C52">
+        <f>D43</f>
+        <v>1.7514E-3</v>
+      </c>
+      <c r="D52">
+        <f>D44</f>
+        <v>1.4009367E-2</v>
+      </c>
+      <c r="E52">
+        <f>D45</f>
+        <v>0.13739833300000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <f>E42</f>
+        <v>8.2370000000000002E-4</v>
+      </c>
+      <c r="C53">
+        <f>E43</f>
+        <v>6.3661669999999998E-3</v>
+      </c>
+      <c r="D53">
+        <f>E44</f>
+        <v>6.4384467000000001E-2</v>
+      </c>
+      <c r="E53">
+        <f>E45</f>
+        <v>0.63377966699999999</v>
       </c>
     </row>
   </sheetData>
@@ -1304,6 +3034,8 @@
   <ignoredErrors>
     <ignoredError sqref="E5:E9 G5:G9" formula="1"/>
     <ignoredError sqref="F27:F31" formulaRange="1"/>
+    <ignoredError sqref="A42:A45 B48:E48" numberStoredAsText="1"/>
   </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/TeamProject115/timing115.xlsx
+++ b/TeamProject115/timing115.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khanb\source\repos\TeamProject115\TeamProject115\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9167716B-71EF-4C75-AD10-23610592F061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{247BE395-FDF8-4397-AEA2-1A0109828749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C4DC0EAD-8D25-4CEF-9B77-817A79C8CBD8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="21">
   <si>
     <t>Data Size</t>
   </si>
@@ -209,15 +209,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sort</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Method </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Running Time Comparison (Second)</a:t>
+              <a:t>Comparision of Sorting Methods</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -363,7 +355,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1BCD-48A4-ACE2-689B9774EB9F}"/>
+              <c16:uniqueId val="{00000000-DCAE-479E-B9C0-9A3B3C4652CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -435,7 +427,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1BCD-48A4-ACE2-689B9774EB9F}"/>
+              <c16:uniqueId val="{00000001-DCAE-479E-B9C0-9A3B3C4652CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -507,7 +499,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1BCD-48A4-ACE2-689B9774EB9F}"/>
+              <c16:uniqueId val="{00000002-DCAE-479E-B9C0-9A3B3C4652CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -579,7 +571,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1BCD-48A4-ACE2-689B9774EB9F}"/>
+              <c16:uniqueId val="{00000003-DCAE-479E-B9C0-9A3B3C4652CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -601,7 +593,7 @@
             <a:solidFill>
               <a:schemeClr val="accent5"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="25400">
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
@@ -651,7 +643,218 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1BCD-48A4-ACE2-689B9774EB9F}"/>
+              <c16:uniqueId val="{00000004-DCAE-479E-B9C0-9A3B3C4652CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$42:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$42:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.80932E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.47611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144.703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DCAE-479E-B9C0-9A3B3C4652CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$42:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$42:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.3931199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4007699999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>318.86099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DCAE-479E-B9C0-9A3B3C4652CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$42:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$42:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.1794600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6089599999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>463.73200000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-DCAE-479E-B9C0-9A3B3C4652CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -663,78 +866,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="298746432"/>
-        <c:axId val="236977712"/>
-        <c:axId val="322308240"/>
+        <c:axId val="1986340239"/>
+        <c:axId val="1987169103"/>
+        <c:axId val="1947424479"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="298746432"/>
+        <c:axId val="1986340239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Data</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -770,7 +914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236977712"/>
+        <c:crossAx val="1987169103"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -778,7 +922,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236977712"/>
+        <c:axId val="1987169103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,61 +942,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time (Seconds)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -884,87 +973,30 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298746432"/>
+        <c:crossAx val="1986340239"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="322308240"/>
+        <c:axId val="1947424479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Sorting Methods</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.8159334827672089"/>
-              <c:y val="0.77319839975950155"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -988,7 +1020,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236977712"/>
+        <c:crossAx val="1987169103"/>
+        <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
         <a:noFill/>
@@ -1031,13 +1064,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1114,7 +1140,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1222,11 +1248,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1237,11 +1258,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1273,9 +1289,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1331,22 +1344,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1451,8 +1465,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1516,6 +1530,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1584,19 +1609,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1634,22 +1660,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704849</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E813139-5AB6-412B-AB83-5272779500F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51882493-53DA-4E57-8F98-50C1E19D94D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1969,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1750635C-F59B-4745-B839-268F536C334E}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,7 +2705,7 @@
         <v>6.4384466666666654E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>1</v>
       </c>
@@ -2699,7 +2725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2721,7 +2747,7 @@
         <v>1.5116033333333334</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2743,7 +2769,7 @@
         <v>1.4259266666666666</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -2765,7 +2791,7 @@
         <v>3.9900933333333337</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -2787,7 +2813,7 @@
         <v>0.13739833333333332</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -2809,7 +2835,7 @@
         <v>0.63377966666666663</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
@@ -2828,8 +2854,17 @@
       <c r="F41" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>17</v>
       </c>
@@ -2848,8 +2883,17 @@
       <c r="F42">
         <v>2.3056000000000001E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G42" s="1">
+        <v>1.80932E-2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>5.3931199999999999E-2</v>
+      </c>
+      <c r="I42" s="1">
+        <v>5.1794600000000003E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>18</v>
       </c>
@@ -2868,8 +2912,17 @@
       <c r="F43" s="1">
         <v>2.6365132999999999E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G43" s="1">
+        <v>1.47611</v>
+      </c>
+      <c r="H43" s="1">
+        <v>4.4007699999999996</v>
+      </c>
+      <c r="I43" s="1">
+        <v>4.6089599999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>19</v>
       </c>
@@ -2888,8 +2941,17 @@
       <c r="F44" s="1">
         <v>0.32548533299999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G44" s="1">
+        <v>144.703</v>
+      </c>
+      <c r="H44" s="1">
+        <v>318.86099999999999</v>
+      </c>
+      <c r="I44" s="1">
+        <v>463.73200000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>20</v>
       </c>
@@ -2909,7 +2971,7 @@
         <v>3.9900933329999999</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>17</v>
       </c>

--- a/TeamProject115/timing115.xlsx
+++ b/TeamProject115/timing115.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khanb\source\repos\TeamProject115\TeamProject115\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{247BE395-FDF8-4397-AEA2-1A0109828749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9512DF-C82F-4266-A4B5-DA9A109EF90E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C4DC0EAD-8D25-4CEF-9B77-817A79C8CBD8}"/>
   </bookViews>
@@ -313,9 +313,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$42:$A$45</c:f>
+              <c:f>Sheet1!$A$42:$A$48</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -326,6 +326,15 @@
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1000000</c:v>
                 </c:pt>
               </c:strCache>
@@ -333,10 +342,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$42:$B$45</c:f>
+              <c:f>Sheet1!$B$42:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.7864000000000001E-3</c:v>
                 </c:pt>
@@ -347,6 +356,15 @@
                   <c:v>0.14043666699999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.30292799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59450899999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1900200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.511603333</c:v>
                 </c:pt>
               </c:numCache>
@@ -385,9 +403,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$42:$A$45</c:f>
+              <c:f>Sheet1!$A$42:$A$48</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -398,6 +416,15 @@
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1000000</c:v>
                 </c:pt>
               </c:strCache>
@@ -405,10 +432,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$42:$C$45</c:f>
+              <c:f>Sheet1!$C$42:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8.2269999999999999E-4</c:v>
                 </c:pt>
@@ -419,6 +446,15 @@
                   <c:v>0.111851333</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.232928</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49990800000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.09395</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.4259266669999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -457,9 +493,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$42:$A$45</c:f>
+              <c:f>Sheet1!$A$42:$A$48</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -470,6 +506,15 @@
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1000000</c:v>
                 </c:pt>
               </c:strCache>
@@ -477,10 +522,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$42:$D$45</c:f>
+              <c:f>Sheet1!$D$42:$D$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4.2519999999999998E-4</c:v>
                 </c:pt>
@@ -491,6 +536,15 @@
                   <c:v>1.4009367E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2.87818E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5572499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11049</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.13739833300000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -529,9 +583,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$42:$A$45</c:f>
+              <c:f>Sheet1!$A$42:$A$48</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -542,6 +596,15 @@
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1000000</c:v>
                 </c:pt>
               </c:strCache>
@@ -549,10 +612,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$42:$E$45</c:f>
+              <c:f>Sheet1!$E$42:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8.2370000000000002E-4</c:v>
                 </c:pt>
@@ -563,6 +626,15 @@
                   <c:v>6.4384467000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.13825100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.252695</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50569399999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.63377966699999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -601,9 +673,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$42:$A$45</c:f>
+              <c:f>Sheet1!$A$42:$A$48</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -614,6 +686,15 @@
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1000000</c:v>
                 </c:pt>
               </c:strCache>
@@ -621,10 +702,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$42:$F$45</c:f>
+              <c:f>Sheet1!$F$42:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2.3056000000000001E-3</c:v>
                 </c:pt>
@@ -635,6 +716,15 @@
                   <c:v>0.32548533299999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.73297100000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5839799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1702699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3.9900933329999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -673,9 +763,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$42:$A$45</c:f>
+              <c:f>Sheet1!$A$42:$A$48</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -686,6 +776,15 @@
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1000000</c:v>
                 </c:pt>
               </c:strCache>
@@ -693,10 +792,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$42:$G$45</c:f>
+              <c:f>Sheet1!$G$42:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.80932E-2</c:v>
                 </c:pt>
@@ -744,9 +843,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$42:$A$45</c:f>
+              <c:f>Sheet1!$A$42:$A$48</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -757,6 +856,15 @@
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1000000</c:v>
                 </c:pt>
               </c:strCache>
@@ -764,10 +872,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$42:$H$45</c:f>
+              <c:f>Sheet1!$H$42:$H$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.3931199999999999E-2</c:v>
                 </c:pt>
@@ -815,9 +923,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$42:$A$45</c:f>
+              <c:f>Sheet1!$A$42:$A$48</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -828,6 +936,15 @@
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1000000</c:v>
                 </c:pt>
               </c:strCache>
@@ -835,10 +952,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$42:$I$45</c:f>
+              <c:f>Sheet1!$I$42:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.1794600000000003E-2</c:v>
                 </c:pt>
@@ -1099,7 +1216,863 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Five Fasted Sorting Methods</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$42:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$42:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7864000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3485199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14043666699999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30292799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59450899999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1900200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.511603333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6084-47AD-A1A8-4F5FB39F0986}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$42:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$42:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.2269999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1406433000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.111851333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.232928</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49990800000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.09395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4259266669999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6084-47AD-A1A8-4F5FB39F0986}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coutning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$42:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$42:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.2519999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7514E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4009367E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.87818E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5572499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11049</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13739833300000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6084-47AD-A1A8-4F5FB39F0986}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Radix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$42:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$42:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.2370000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3661669999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4384467000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13825100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.252695</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50569399999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63377966699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6084-47AD-A1A8-4F5FB39F0986}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$42:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$42:$F$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.3056000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6365132999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32548533299999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73297100000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5839799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1702699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9900933329999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6084-47AD-A1A8-4F5FB39F0986}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1941033200"/>
+        <c:axId val="1981600368"/>
+        <c:axId val="1916101776"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="1941033200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1981600368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1981600368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1941033200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1916101776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1981600368"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1655,6 +2628,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1667,7 +3156,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>704849</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1688,6 +3177,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50FC489A-B5EB-4BD5-B6D0-6EB0A71A59E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1993,10 +3518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1750635C-F59B-4745-B839-268F536C334E}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:I45"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2952,141 +4477,210 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>20</v>
+      <c r="A45" s="4">
+        <v>200000</v>
       </c>
       <c r="B45" s="1">
-        <v>1.511603333</v>
+        <v>0.30292799999999998</v>
       </c>
       <c r="C45" s="1">
-        <v>1.4259266669999999</v>
+        <v>0.232928</v>
       </c>
       <c r="D45" s="1">
-        <v>0.13739833300000001</v>
+        <v>2.87818E-2</v>
       </c>
       <c r="E45" s="1">
-        <v>0.63377966699999999</v>
+        <v>0.13825100000000001</v>
       </c>
       <c r="F45" s="1">
-        <v>3.9900933329999999</v>
-      </c>
+        <v>0.73297100000000004</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>400000</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.59450899999999995</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.49990800000000002</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5.5572499999999997E-2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.252695</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1.5839799999999999</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>800000</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1.1900200000000001</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.09395</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.11049</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.50569399999999998</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3.1702699999999999</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1.511603333</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.4259266669999999</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.13739833300000001</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.63377966699999999</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3.9900933329999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49">
-        <f>B42</f>
-        <v>1.7864000000000001E-3</v>
-      </c>
-      <c r="C49">
-        <f>B43</f>
-        <v>1.3485199999999999E-2</v>
-      </c>
-      <c r="D49">
-        <f>B44</f>
-        <v>0.14043666699999999</v>
-      </c>
-      <c r="E49">
-        <f>B45</f>
-        <v>1.511603333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50">
-        <f>C42</f>
-        <v>8.2269999999999999E-4</v>
-      </c>
-      <c r="C50">
-        <f>C43</f>
-        <v>1.1406433000000001E-2</v>
-      </c>
-      <c r="D50">
-        <f>C44</f>
-        <v>0.111851333</v>
-      </c>
-      <c r="E50">
-        <f>C45</f>
-        <v>1.4259266669999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51">
-        <f>F42</f>
-        <v>2.3056000000000001E-3</v>
-      </c>
-      <c r="C51">
-        <f>F43</f>
-        <v>2.6365132999999999E-2</v>
-      </c>
-      <c r="D51">
-        <f>F44</f>
-        <v>0.32548533299999999</v>
-      </c>
-      <c r="E51">
-        <f>F45</f>
-        <v>3.9900933329999999</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B52">
-        <f>D42</f>
-        <v>4.2519999999999998E-4</v>
+        <f>B42</f>
+        <v>1.7864000000000001E-3</v>
       </c>
       <c r="C52">
-        <f>D43</f>
-        <v>1.7514E-3</v>
+        <f>B43</f>
+        <v>1.3485199999999999E-2</v>
       </c>
       <c r="D52">
-        <f>D44</f>
-        <v>1.4009367E-2</v>
+        <f>B44</f>
+        <v>0.14043666699999999</v>
       </c>
       <c r="E52">
-        <f>D45</f>
-        <v>0.13739833300000001</v>
+        <f>B48</f>
+        <v>1.511603333</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <f>C42</f>
+        <v>8.2269999999999999E-4</v>
+      </c>
+      <c r="C53">
+        <f>C43</f>
+        <v>1.1406433000000001E-2</v>
+      </c>
+      <c r="D53">
+        <f>C44</f>
+        <v>0.111851333</v>
+      </c>
+      <c r="E53">
+        <f>C48</f>
+        <v>1.4259266669999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <f>F42</f>
+        <v>2.3056000000000001E-3</v>
+      </c>
+      <c r="C54">
+        <f>F43</f>
+        <v>2.6365132999999999E-2</v>
+      </c>
+      <c r="D54">
+        <f>F44</f>
+        <v>0.32548533299999999</v>
+      </c>
+      <c r="E54">
+        <f>F48</f>
+        <v>3.9900933329999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <f>D42</f>
+        <v>4.2519999999999998E-4</v>
+      </c>
+      <c r="C55">
+        <f>D43</f>
+        <v>1.7514E-3</v>
+      </c>
+      <c r="D55">
+        <f>D44</f>
+        <v>1.4009367E-2</v>
+      </c>
+      <c r="E55">
+        <f>D48</f>
+        <v>0.13739833300000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>9</v>
       </c>
-      <c r="B53">
+      <c r="B56">
         <f>E42</f>
         <v>8.2370000000000002E-4</v>
       </c>
-      <c r="C53">
+      <c r="C56">
         <f>E43</f>
         <v>6.3661669999999998E-3</v>
       </c>
-      <c r="D53">
+      <c r="D56">
         <f>E44</f>
         <v>6.4384467000000001E-2</v>
       </c>
-      <c r="E53">
-        <f>E45</f>
+      <c r="E56">
+        <f>E48</f>
         <v>0.63377966699999999</v>
       </c>
     </row>
@@ -3096,7 +4690,7 @@
   <ignoredErrors>
     <ignoredError sqref="E5:E9 G5:G9" formula="1"/>
     <ignoredError sqref="F27:F31" formulaRange="1"/>
-    <ignoredError sqref="A42:A45 B48:E48" numberStoredAsText="1"/>
+    <ignoredError sqref="A48 B51:E51 A42:A44" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/TeamProject115/timing115.xlsx
+++ b/TeamProject115/timing115.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khanb\source\repos\TeamProject115\TeamProject115\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9512DF-C82F-4266-A4B5-DA9A109EF90E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1205B519-51F9-4E8F-804F-A1EADEB6FA12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C4DC0EAD-8D25-4CEF-9B77-817A79C8CBD8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="22">
   <si>
     <t>Data Size</t>
   </si>
@@ -98,12 +98,15 @@
   <si>
     <t>1000000</t>
   </si>
+  <si>
+    <t>Not Run</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +133,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,12 +161,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,6 +827,18 @@
                 <c:pt idx="2">
                   <c:v>144.703</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -885,6 +919,18 @@
                 <c:pt idx="2">
                   <c:v>318.86099999999999</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -964,6 +1010,18 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>463.73200000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3148,16 +3206,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>704849</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3520,8 +3578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1750635C-F59B-4745-B839-268F536C334E}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:F48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4361,208 +4419,235 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="6">
         <v>1.7864000000000001E-3</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="7">
         <v>8.2269999999999999E-4</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="7">
         <v>4.2519999999999998E-4</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="6">
         <v>8.2370000000000002E-4</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="6">
         <v>2.3056000000000001E-3</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="7">
         <v>1.80932E-2</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="7">
         <v>5.3931199999999999E-2</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="7">
         <v>5.1794600000000003E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="7">
         <v>1.3485199999999999E-2</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="7">
         <v>1.1406433000000001E-2</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="7">
         <v>1.7514E-3</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="7">
         <v>6.3661669999999998E-3</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="7">
         <v>2.6365132999999999E-2</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="7">
         <v>1.47611</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="7">
         <v>4.4007699999999996</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="7">
         <v>4.6089599999999997</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="7">
         <v>0.14043666699999999</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="7">
         <v>0.111851333</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="7">
         <v>1.4009367E-2</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="7">
         <v>6.4384467000000001E-2</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="7">
         <v>0.32548533299999999</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="7">
         <v>144.703</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="7">
         <v>318.86099999999999</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="7">
         <v>463.73200000000003</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>200000</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="7">
         <v>0.30292799999999998</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="7">
         <v>0.232928</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="7">
         <v>2.87818E-2</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="7">
         <v>0.13825100000000001</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="7">
         <v>0.73297100000000004</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="G45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="5">
         <v>400000</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="7">
         <v>0.59450899999999995</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="7">
         <v>0.49990800000000002</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="7">
         <v>5.5572499999999997E-2</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="7">
         <v>0.252695</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="7">
         <v>1.5839799999999999</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="G46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <v>800000</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="7">
         <v>1.1900200000000001</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="7">
         <v>1.09395</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="7">
         <v>0.11049</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="7">
         <v>0.50569399999999998</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="7">
         <v>3.1702699999999999</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="G47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="7">
         <v>1.511603333</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="7">
         <v>1.4259266669999999</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="7">
         <v>0.13739833300000001</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="7">
         <v>0.63377966699999999</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="7">
         <v>3.9900933329999999</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">

--- a/TeamProject115/timing115.xlsx
+++ b/TeamProject115/timing115.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khanb\source\repos\TeamProject115\TeamProject115\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1205B519-51F9-4E8F-804F-A1EADEB6FA12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBBE0DF-E108-4743-9D67-944EA3BD1DC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C4DC0EAD-8D25-4CEF-9B77-817A79C8CBD8}"/>
+    <workbookView xWindow="5610" yWindow="1170" windowWidth="21600" windowHeight="11835" xr2:uid="{C4DC0EAD-8D25-4CEF-9B77-817A79C8CBD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="26">
   <si>
     <t>Data Size</t>
   </si>
@@ -101,6 +101,18 @@
   <si>
     <t>Not Run</t>
   </si>
+  <si>
+    <t>Timing for Small Data Set</t>
+  </si>
+  <si>
+    <t>Average (Sec)</t>
+  </si>
+  <si>
+    <t>Time 2 (Seconds)</t>
+  </si>
+  <si>
+    <t>Time 3 (Seconds)</t>
+  </si>
 </sst>
 </file>
 
@@ -161,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -179,6 +191,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3576,10 +3589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1750635C-F59B-4745-B839-268F536C334E}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:I48"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3587,10 +3600,9 @@
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
@@ -4769,12 +4781,727 @@
         <v>0.63377966699999999</v>
       </c>
     </row>
+    <row r="96" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="1">
+        <v>100</v>
+      </c>
+      <c r="C109" s="1">
+        <v>3.8999999999999999E-4</v>
+      </c>
+      <c r="D109" s="1">
+        <v>2.4039999999999999E-4</v>
+      </c>
+      <c r="E109" s="1">
+        <v>2.4039999999999999E-4</v>
+      </c>
+      <c r="F109">
+        <f>AVERAGE(C109:E109)</f>
+        <v>2.9026666666666666E-4</v>
+      </c>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="1">
+        <v>100</v>
+      </c>
+      <c r="C110" s="1">
+        <v>9.144E-4</v>
+      </c>
+      <c r="D110" s="1">
+        <v>1.3318E-3</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1.3318E-3</v>
+      </c>
+      <c r="F110">
+        <f t="shared" ref="F110:H116" si="14">AVERAGE(A110,C110,E110)</f>
+        <v>1.1230999999999999E-3</v>
+      </c>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="1">
+        <v>100</v>
+      </c>
+      <c r="C111" s="1">
+        <v>6.1831999999999998E-3</v>
+      </c>
+      <c r="D111" s="1">
+        <v>9.3269999999999996E-4</v>
+      </c>
+      <c r="E111" s="1">
+        <v>9.3269999999999996E-4</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="14"/>
+        <v>3.5579499999999998E-3</v>
+      </c>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="1">
+        <v>100</v>
+      </c>
+      <c r="C112" s="1">
+        <v>3.8969999999999999E-4</v>
+      </c>
+      <c r="D112" s="1">
+        <v>2.0440000000000001E-4</v>
+      </c>
+      <c r="E112" s="1">
+        <v>2.0440000000000001E-4</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="14"/>
+        <v>2.9704999999999998E-4</v>
+      </c>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="1">
+        <v>100</v>
+      </c>
+      <c r="C113" s="9">
+        <v>4.6799999999999999E-5</v>
+      </c>
+      <c r="D113" s="9">
+        <v>6.41E-5</v>
+      </c>
+      <c r="E113" s="9">
+        <v>6.41E-5</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="14"/>
+        <v>5.5449999999999999E-5</v>
+      </c>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="1">
+        <v>100</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1.8540000000000001E-4</v>
+      </c>
+      <c r="D114" s="1">
+        <v>3.0830000000000001E-4</v>
+      </c>
+      <c r="E114" s="1">
+        <v>3.0830000000000001E-4</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="14"/>
+        <v>2.4685000000000001E-4</v>
+      </c>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1">
+        <v>100</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2.9550000000000003E-4</v>
+      </c>
+      <c r="D115" s="1">
+        <v>2.9819999999999998E-4</v>
+      </c>
+      <c r="E115" s="1">
+        <v>2.9819999999999998E-4</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="14"/>
+        <v>2.9684999999999998E-4</v>
+      </c>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="1">
+        <v>100</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1.239E-4</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1.17E-4</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1.17E-4</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="14"/>
+        <v>1.2045E-4</v>
+      </c>
+      <c r="G116" s="1"/>
+    </row>
+    <row r="118" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="1">
+        <v>250</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1.124E-3</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1.2287999999999999E-3</v>
+      </c>
+      <c r="E119" s="1">
+        <v>9.8740000000000004E-4</v>
+      </c>
+      <c r="F119">
+        <f>AVERAGE(C119:E119)</f>
+        <v>1.1133999999999998E-3</v>
+      </c>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" s="1">
+        <v>250</v>
+      </c>
+      <c r="C120" s="1">
+        <v>3.7680000000000001E-3</v>
+      </c>
+      <c r="D120" s="1">
+        <v>3.0081000000000001E-3</v>
+      </c>
+      <c r="E120" s="1">
+        <v>2.9225000000000002E-3</v>
+      </c>
+      <c r="F120">
+        <f t="shared" ref="F120:F126" si="15">AVERAGE(A120,C120,E120)</f>
+        <v>3.3452500000000001E-3</v>
+      </c>
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="1">
+        <v>250</v>
+      </c>
+      <c r="C121" s="1">
+        <v>4.0804999999999999E-3</v>
+      </c>
+      <c r="D121" s="1">
+        <v>3.1657999999999999E-3</v>
+      </c>
+      <c r="E121" s="1">
+        <v>3.0753E-3</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="15"/>
+        <v>3.5779000000000002E-3</v>
+      </c>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="1">
+        <v>250</v>
+      </c>
+      <c r="C122" s="1">
+        <v>3.2180000000000002E-4</v>
+      </c>
+      <c r="D122" s="1">
+        <v>3.1940000000000001E-4</v>
+      </c>
+      <c r="E122" s="1">
+        <v>3.9319999999999997E-3</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="15"/>
+        <v>2.1268999999999997E-3</v>
+      </c>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="1">
+        <v>250</v>
+      </c>
+      <c r="C123" s="9">
+        <v>1.4899999999999999E-4</v>
+      </c>
+      <c r="D123" s="9">
+        <v>1.428E-4</v>
+      </c>
+      <c r="E123" s="9">
+        <v>1.9269999999999999E-4</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="15"/>
+        <v>1.7085000000000001E-4</v>
+      </c>
+      <c r="G123" s="9"/>
+    </row>
+    <row r="124" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="1">
+        <v>250</v>
+      </c>
+      <c r="C124" s="1">
+        <v>3.679E-4</v>
+      </c>
+      <c r="D124" s="1">
+        <v>3.793E-4</v>
+      </c>
+      <c r="E124" s="1">
+        <v>3.6949999999999998E-4</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="15"/>
+        <v>3.6870000000000002E-4</v>
+      </c>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="1">
+        <v>250</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2.9090000000000002E-4</v>
+      </c>
+      <c r="D125" s="1">
+        <v>2.8229999999999998E-4</v>
+      </c>
+      <c r="E125" s="1">
+        <v>2.8959999999999999E-4</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="15"/>
+        <v>2.9025000000000003E-4</v>
+      </c>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" s="1">
+        <v>250</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2.076E-4</v>
+      </c>
+      <c r="D126" s="1">
+        <v>1.8369999999999999E-4</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1.8320000000000001E-4</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="15"/>
+        <v>1.9540000000000001E-4</v>
+      </c>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="128" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="1">
+        <v>500</v>
+      </c>
+      <c r="C129" s="1">
+        <v>4.1895999999999999E-3</v>
+      </c>
+      <c r="D129" s="1">
+        <v>3.8262999999999999E-3</v>
+      </c>
+      <c r="E129" s="1">
+        <v>3.7762E-3</v>
+      </c>
+      <c r="F129">
+        <f>AVERAGE(C129:E129)</f>
+        <v>3.9306999999999996E-3</v>
+      </c>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" s="1">
+        <v>500</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1.3461600000000001E-2</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1.17346E-2</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1.24297E-2</v>
+      </c>
+      <c r="F130">
+        <f t="shared" ref="F130:F136" si="16">AVERAGE(A130,C130,E130)</f>
+        <v>1.294565E-2</v>
+      </c>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="1">
+        <v>500</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1.3203899999999999E-2</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1.18174E-2</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1.1827900000000001E-2</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="16"/>
+        <v>1.25159E-2</v>
+      </c>
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="1">
+        <v>500</v>
+      </c>
+      <c r="C132" s="1">
+        <v>5.7439999999999998E-4</v>
+      </c>
+      <c r="D132" s="1">
+        <v>5.976E-4</v>
+      </c>
+      <c r="E132" s="1">
+        <v>5.7910000000000004E-4</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="16"/>
+        <v>5.7675000000000001E-4</v>
+      </c>
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="1">
+        <v>500</v>
+      </c>
+      <c r="C133" s="9">
+        <v>3.0939999999999999E-4</v>
+      </c>
+      <c r="D133" s="9">
+        <v>3.1280000000000001E-4</v>
+      </c>
+      <c r="E133" s="9">
+        <v>3.1050000000000001E-4</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="16"/>
+        <v>3.0995000000000003E-4</v>
+      </c>
+      <c r="G133" s="9"/>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="1">
+        <v>500</v>
+      </c>
+      <c r="C134" s="1">
+        <v>8.1950000000000002E-4</v>
+      </c>
+      <c r="D134" s="1">
+        <v>8.2269999999999999E-4</v>
+      </c>
+      <c r="E134" s="1">
+        <v>8.2010000000000004E-4</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="16"/>
+        <v>8.1980000000000009E-4</v>
+      </c>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="1">
+        <v>500</v>
+      </c>
+      <c r="C135" s="1">
+        <v>3.2009999999999999E-3</v>
+      </c>
+      <c r="D135" s="1">
+        <v>3.1629999999999999E-4</v>
+      </c>
+      <c r="E135" s="1">
+        <v>3.9520000000000001E-4</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="16"/>
+        <v>1.7981E-3</v>
+      </c>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="1">
+        <v>500</v>
+      </c>
+      <c r="C136" s="1">
+        <v>3.411E-4</v>
+      </c>
+      <c r="D136" s="1">
+        <v>3.2089999999999999E-4</v>
+      </c>
+      <c r="E136" s="1">
+        <v>3.1730000000000001E-4</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="16"/>
+        <v>3.2919999999999998E-4</v>
+      </c>
+      <c r="G136" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="E5:E9 G5:G9" formula="1"/>
-    <ignoredError sqref="F27:F31" formulaRange="1"/>
+    <ignoredError sqref="F27:F31 F109 F119 F129" formulaRange="1"/>
     <ignoredError sqref="A48 B51:E51 A42:A44" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>

--- a/TeamProject115/timing115.xlsx
+++ b/TeamProject115/timing115.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khanb\source\repos\TeamProject115\TeamProject115\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBBE0DF-E108-4743-9D67-944EA3BD1DC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B9C57E-BFC7-4582-B344-1BEC3FA8942C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="1170" windowWidth="21600" windowHeight="11835" xr2:uid="{C4DC0EAD-8D25-4CEF-9B77-817A79C8CBD8}"/>
+    <workbookView xWindow="4635" yWindow="1905" windowWidth="21600" windowHeight="11835" xr2:uid="{C4DC0EAD-8D25-4CEF-9B77-817A79C8CBD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="30">
   <si>
     <t>Data Size</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>Time 3 (Seconds)</t>
+  </si>
+  <si>
+    <t>Inputs: Already Sorted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inputs: Reverely Sorted </t>
+  </si>
+  <si>
+    <t>Inputs: Half  Sorted Half Random</t>
+  </si>
+  <si>
+    <t>Updated for Sorted, Reversed, Haf-Sorted and Half Random</t>
   </si>
 </sst>
 </file>
@@ -3589,10 +3601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1750635C-F59B-4745-B839-268F536C334E}">
-  <dimension ref="A1:K136"/>
+  <dimension ref="A1:K159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4964,7 +4976,7 @@
         <v>1.3318E-3</v>
       </c>
       <c r="F110">
-        <f t="shared" ref="F110:H116" si="14">AVERAGE(A110,C110,E110)</f>
+        <f t="shared" ref="F110:F116" si="14">AVERAGE(A110,C110,E110)</f>
         <v>1.1230999999999999E-3</v>
       </c>
       <c r="G110" s="1"/>
@@ -5299,209 +5311,585 @@
       </c>
       <c r="G126" s="1"/>
     </row>
+    <row r="127" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="G127" s="1"/>
+    </row>
     <row r="128" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G128" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="1">
-        <v>500</v>
-      </c>
-      <c r="C129" s="1">
-        <v>4.1895999999999999E-3</v>
-      </c>
-      <c r="D129" s="1">
-        <v>3.8262999999999999E-3</v>
-      </c>
-      <c r="E129" s="1">
-        <v>3.7762E-3</v>
-      </c>
-      <c r="F129">
-        <f>AVERAGE(C129:E129)</f>
-        <v>3.9306999999999996E-3</v>
-      </c>
-      <c r="G129" s="1"/>
-    </row>
-    <row r="130" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B130" s="1">
-        <v>500</v>
-      </c>
-      <c r="C130" s="1">
-        <v>1.3461600000000001E-2</v>
-      </c>
-      <c r="D130" s="1">
-        <v>1.17346E-2</v>
-      </c>
-      <c r="E130" s="1">
-        <v>1.24297E-2</v>
-      </c>
-      <c r="F130">
-        <f t="shared" ref="F130:F136" si="16">AVERAGE(A130,C130,E130)</f>
-        <v>1.294565E-2</v>
-      </c>
-      <c r="G130" s="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G130" s="3"/>
     </row>
     <row r="131" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B131" s="1">
-        <v>500</v>
-      </c>
-      <c r="C131" s="1">
-        <v>1.3203899999999999E-2</v>
-      </c>
-      <c r="D131" s="1">
-        <v>1.18174E-2</v>
-      </c>
-      <c r="E131" s="1">
-        <v>1.1827900000000001E-2</v>
+        <v>100</v>
+      </c>
+      <c r="C131" s="9">
+        <v>5.4E-6</v>
+      </c>
+      <c r="D131" s="9">
+        <v>4.6E-6</v>
+      </c>
+      <c r="E131" s="9">
+        <v>7.4000000000000003E-6</v>
       </c>
       <c r="F131">
-        <f t="shared" si="16"/>
-        <v>1.25159E-2</v>
+        <f>AVERAGE(C131:E131)</f>
+        <v>5.7999999999999995E-6</v>
       </c>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B132" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C132" s="1">
-        <v>5.7439999999999998E-4</v>
+        <v>1.9149999999999999E-4</v>
       </c>
       <c r="D132" s="1">
-        <v>5.976E-4</v>
+        <v>1.9550000000000001E-4</v>
       </c>
       <c r="E132" s="1">
-        <v>5.7910000000000004E-4</v>
+        <v>1.9550000000000001E-4</v>
       </c>
       <c r="F132">
-        <f t="shared" si="16"/>
-        <v>5.7675000000000001E-4</v>
+        <f t="shared" ref="F132:F138" si="16">AVERAGE(A132,C132,E132)</f>
+        <v>1.9349999999999999E-4</v>
       </c>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B133" s="1">
-        <v>500</v>
-      </c>
-      <c r="C133" s="9">
-        <v>3.0939999999999999E-4</v>
-      </c>
-      <c r="D133" s="9">
-        <v>3.1280000000000001E-4</v>
-      </c>
-      <c r="E133" s="9">
-        <v>3.1050000000000001E-4</v>
+        <v>100</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1.9269999999999999E-4</v>
+      </c>
+      <c r="D133" s="1">
+        <v>3.079E-4</v>
+      </c>
+      <c r="E133" s="1">
+        <v>3.079E-4</v>
       </c>
       <c r="F133">
         <f t="shared" si="16"/>
-        <v>3.0995000000000003E-4</v>
-      </c>
-      <c r="G133" s="9"/>
+        <v>2.5030000000000001E-4</v>
+      </c>
+      <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B134" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C134" s="1">
-        <v>8.1950000000000002E-4</v>
+        <v>1.119E-4</v>
       </c>
       <c r="D134" s="1">
-        <v>8.2269999999999999E-4</v>
+        <v>2.219E-4</v>
       </c>
       <c r="E134" s="1">
-        <v>8.2010000000000004E-4</v>
+        <v>2.219E-4</v>
       </c>
       <c r="F134">
         <f t="shared" si="16"/>
-        <v>8.1980000000000009E-4</v>
+        <v>1.6689999999999999E-4</v>
       </c>
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B135" s="1">
-        <v>500</v>
-      </c>
-      <c r="C135" s="1">
-        <v>3.2009999999999999E-3</v>
-      </c>
-      <c r="D135" s="1">
-        <v>3.1629999999999999E-4</v>
-      </c>
-      <c r="E135" s="1">
-        <v>3.9520000000000001E-4</v>
+        <v>100</v>
+      </c>
+      <c r="C135" s="9">
+        <v>1.4459999999999999E-4</v>
+      </c>
+      <c r="D135" s="9">
+        <v>1.763E-4</v>
+      </c>
+      <c r="E135" s="9">
+        <v>1.763E-4</v>
       </c>
       <c r="F135">
         <f t="shared" si="16"/>
-        <v>1.7981E-3</v>
-      </c>
-      <c r="G135" s="1"/>
+        <v>1.6045E-4</v>
+      </c>
+      <c r="G135" s="9"/>
     </row>
     <row r="136" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B136" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C136" s="1">
-        <v>3.411E-4</v>
+        <v>1.76E-4</v>
       </c>
       <c r="D136" s="1">
-        <v>3.2089999999999999E-4</v>
+        <v>2.5060000000000002E-4</v>
       </c>
       <c r="E136" s="1">
-        <v>3.1730000000000001E-4</v>
+        <v>2.5060000000000002E-4</v>
       </c>
       <c r="F136">
         <f t="shared" si="16"/>
-        <v>3.2919999999999998E-4</v>
+        <v>2.1330000000000001E-4</v>
       </c>
       <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="1">
+        <v>100</v>
+      </c>
+      <c r="C137" s="1">
+        <v>2.8969999999999999E-4</v>
+      </c>
+      <c r="D137" s="1">
+        <v>3.392E-4</v>
+      </c>
+      <c r="E137" s="1">
+        <v>3.392E-4</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="16"/>
+        <v>3.1444999999999997E-4</v>
+      </c>
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="1">
+        <v>100</v>
+      </c>
+      <c r="C138" s="9">
+        <v>1.406E-4</v>
+      </c>
+      <c r="D138" s="1">
+        <v>1.0119999999999999E-4</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1.0119999999999999E-4</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="16"/>
+        <v>1.209E-4</v>
+      </c>
+      <c r="G138" s="1"/>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="1">
+        <v>100</v>
+      </c>
+      <c r="C141" s="9">
+        <v>2.9110000000000002E-6</v>
+      </c>
+      <c r="D141" s="9">
+        <v>4.6E-6</v>
+      </c>
+      <c r="E141" s="9">
+        <v>7.4000000000000003E-6</v>
+      </c>
+      <c r="F141">
+        <f>AVERAGE(C141:E141)</f>
+        <v>4.9703333333333331E-6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" s="1">
+        <v>100</v>
+      </c>
+      <c r="C142" s="1">
+        <v>8.0670000000000004E-4</v>
+      </c>
+      <c r="D142" s="1">
+        <v>3.079E-4</v>
+      </c>
+      <c r="E142" s="1">
+        <v>4.2650000000000001E-4</v>
+      </c>
+      <c r="F142">
+        <f t="shared" ref="F142:F148" si="17">AVERAGE(A142,C142,E142)</f>
+        <v>6.1660000000000003E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="1">
+        <v>100</v>
+      </c>
+      <c r="C143" s="1">
+        <v>7.3930000000000003E-4</v>
+      </c>
+      <c r="D143" s="1">
+        <v>7.0699999999999995E-4</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1.2362E-3</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="17"/>
+        <v>9.8774999999999991E-4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="1">
+        <v>100</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1.115E-4</v>
+      </c>
+      <c r="D144" s="1">
+        <v>7.0509999999999995E-4</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1.155E-4</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="17"/>
+        <v>1.1349999999999999E-4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" s="1">
+        <v>100</v>
+      </c>
+      <c r="C145" s="9">
+        <v>1.6809999999999999E-4</v>
+      </c>
+      <c r="D145" s="9">
+        <v>1.172E-4</v>
+      </c>
+      <c r="E145" s="9">
+        <v>1.46E-4</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="17"/>
+        <v>1.5705E-4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" s="1">
+        <v>100</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1.2960000000000001E-4</v>
+      </c>
+      <c r="D146" s="1">
+        <v>1.5640000000000001E-4</v>
+      </c>
+      <c r="E146" s="1">
+        <v>1.4990000000000001E-4</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="17"/>
+        <v>1.3975000000000001E-4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="1">
+        <v>100</v>
+      </c>
+      <c r="C147" s="1">
+        <v>3.8929999999999998E-4</v>
+      </c>
+      <c r="D147" s="1">
+        <v>1.0900000000000001E-4</v>
+      </c>
+      <c r="E147" s="1">
+        <v>3.366E-4</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="17"/>
+        <v>3.6295000000000001E-4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" s="1">
+        <v>100</v>
+      </c>
+      <c r="C148" s="9">
+        <v>1.1620000000000001E-4</v>
+      </c>
+      <c r="D148" s="1">
+        <v>2.5280000000000002E-4</v>
+      </c>
+      <c r="E148" s="9">
+        <v>8.9800000000000001E-5</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="17"/>
+        <v>1.0300000000000001E-4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" s="1">
+        <v>100</v>
+      </c>
+      <c r="C151" s="9">
+        <v>1.4870000000000001E-4</v>
+      </c>
+      <c r="D151" s="9">
+        <v>1.494E-4</v>
+      </c>
+      <c r="E151" s="9">
+        <v>1.428E-4</v>
+      </c>
+      <c r="F151">
+        <f>AVERAGE(C151:E151)</f>
+        <v>1.4696666666666667E-4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" s="1">
+        <v>100</v>
+      </c>
+      <c r="C152" s="1">
+        <v>4.8700000000000002E-4</v>
+      </c>
+      <c r="D152" s="1">
+        <v>5.5340000000000001E-4</v>
+      </c>
+      <c r="E152" s="1">
+        <v>3.9159999999999998E-4</v>
+      </c>
+      <c r="F152">
+        <f t="shared" ref="F152:F158" si="18">AVERAGE(A152,C152,E152)</f>
+        <v>4.393E-4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="1">
+        <v>100</v>
+      </c>
+      <c r="C153" s="1">
+        <v>4.8339999999999999E-4</v>
+      </c>
+      <c r="D153" s="1">
+        <v>6.1950000000000004E-4</v>
+      </c>
+      <c r="E153" s="1">
+        <v>4.2430000000000001E-4</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="18"/>
+        <v>4.5385E-4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="1">
+        <v>100</v>
+      </c>
+      <c r="C154" s="1">
+        <v>2.1320000000000001E-4</v>
+      </c>
+      <c r="D154" s="1">
+        <v>2.452E-4</v>
+      </c>
+      <c r="E154" s="1">
+        <v>2.3369999999999999E-4</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="18"/>
+        <v>2.2344999999999998E-4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" s="1">
+        <v>100</v>
+      </c>
+      <c r="C155" s="9">
+        <v>8.1000000000000004E-5</v>
+      </c>
+      <c r="D155" s="9">
+        <v>1.2510000000000001E-4</v>
+      </c>
+      <c r="E155" s="9">
+        <v>8.4900000000000004E-5</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="18"/>
+        <v>8.295000000000001E-5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" s="1">
+        <v>100</v>
+      </c>
+      <c r="C156" s="1">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="D156" s="1">
+        <v>2.4610000000000002E-4</v>
+      </c>
+      <c r="E156" s="1">
+        <v>2.0680000000000001E-4</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="18"/>
+        <v>1.919E-4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="1">
+        <v>100</v>
+      </c>
+      <c r="C157" s="1">
+        <v>3.2979999999999999E-4</v>
+      </c>
+      <c r="D157" s="1">
+        <v>3.1159999999999998E-4</v>
+      </c>
+      <c r="E157" s="1">
+        <v>2.5849999999999999E-4</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="18"/>
+        <v>2.9414999999999997E-4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" s="1">
+        <v>100</v>
+      </c>
+      <c r="C158" s="9">
+        <v>1.048E-4</v>
+      </c>
+      <c r="D158" s="1">
+        <v>1.4779999999999999E-4</v>
+      </c>
+      <c r="E158" s="9">
+        <v>1.1739999999999999E-4</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="18"/>
+        <v>1.1109999999999999E-4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="E5:E9 G5:G9" formula="1"/>
-    <ignoredError sqref="F27:F31 F109 F119 F129" formulaRange="1"/>
+    <ignoredError sqref="F27:F31 F109 F119 F131 F141 F151" formulaRange="1"/>
     <ignoredError sqref="A48 B51:E51 A42:A44" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>

--- a/TeamProject115/timing115.xlsx
+++ b/TeamProject115/timing115.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khanb\source\repos\TeamProject115\TeamProject115\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B9C57E-BFC7-4582-B344-1BEC3FA8942C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC96C5E-E294-4476-8E85-46FA2ECFFC19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="1905" windowWidth="21600" windowHeight="11835" xr2:uid="{C4DC0EAD-8D25-4CEF-9B77-817A79C8CBD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C4DC0EAD-8D25-4CEF-9B77-817A79C8CBD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,9 +360,16 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$42:$A$48</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$42:$A$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$42:$A$44</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -371,28 +378,23 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$42:$B$48</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$42:$B$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$42:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.7864000000000001E-3</c:v>
                 </c:pt>
@@ -401,18 +403,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14043666699999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.30292799999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.59450899999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1900200000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.511603333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -450,9 +440,16 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$42:$A$48</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$42:$A$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$42:$A$44</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -461,28 +458,23 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$42:$C$48</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$42:$C$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$C$42:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>8.2269999999999999E-4</c:v>
                 </c:pt>
@@ -491,18 +483,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.111851333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.232928</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.49990800000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.09395</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4259266669999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -540,9 +520,16 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$42:$A$48</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$42:$A$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$42:$A$44</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -551,28 +538,23 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$42:$D$48</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$42:$D$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$42:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>4.2519999999999998E-4</c:v>
                 </c:pt>
@@ -581,18 +563,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.4009367E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.87818E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5572499999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.11049</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.13739833300000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -630,9 +600,16 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$42:$A$48</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$42:$A$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$42:$A$44</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -641,28 +618,23 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$42:$E$48</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$42:$E$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$E$42:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>8.2370000000000002E-4</c:v>
                 </c:pt>
@@ -671,18 +643,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.4384467000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13825100000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.252695</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.50569399999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.63377966699999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -720,9 +680,16 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$42:$A$48</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$42:$A$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$42:$A$44</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -731,28 +698,23 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$42:$F$48</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$F$42:$F$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$F$42:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2.3056000000000001E-3</c:v>
                 </c:pt>
@@ -761,18 +723,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.32548533299999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73297100000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5839799999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.1702699999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.9900933329999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,9 +760,16 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$42:$A$48</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$42:$A$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$42:$A$44</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -821,28 +778,23 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$42:$G$48</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$G$42:$G$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$G$42:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.80932E-2</c:v>
                 </c:pt>
@@ -851,18 +803,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>144.703</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -902,9 +842,16 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$42:$A$48</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$42:$A$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$42:$A$44</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -913,28 +860,23 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$42:$H$48</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$H$42:$H$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$H$42:$H$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>5.3931199999999999E-2</c:v>
                 </c:pt>
@@ -943,18 +885,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>318.86099999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -994,9 +924,16 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$42:$A$48</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$42:$A$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$42:$A$44</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -1005,28 +942,23 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$42:$I$48</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$42:$I$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$42:$I$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>5.1794600000000003E-2</c:v>
                 </c:pt>
@@ -1035,18 +967,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>463.73200000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3603,8 +3523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1750635C-F59B-4745-B839-268F536C334E}">
   <dimension ref="A1:K159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
